--- a/Pinbelegung.xlsx
+++ b/Pinbelegung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Projektarbeit\Programmierung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kopie zapasowe dysku najwazniejsze rzeczy\Pulpit\Projektarbeit\000_Pisanie\Bedieneinleitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53150F57-BD45-416C-A12D-6B261622251C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3CE428D-A398-4486-B6E7-2C3B7A4F9E1E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="5775" xr2:uid="{17309434-1E5E-4D4D-99F5-E62477EE2246}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="10410" xr2:uid="{17309434-1E5E-4D4D-99F5-E62477EE2246}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>Pinbelegung</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>TDC_STOP</t>
+  </si>
+  <si>
+    <t>nicht vebunden mit Uno</t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -751,7 +754,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -788,7 +791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -852,7 +855,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295516792"/>
@@ -910,7 +913,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295519416"/>
@@ -958,7 +961,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1552,9 +1555,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1592,7 +1595,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1698,7 +1701,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1851,31 +1854,32 @@
   <dimension ref="B2:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.86328125" customWidth="1"/>
-    <col min="4" max="4" width="7.46484375" customWidth="1"/>
-    <col min="5" max="5" width="5.86328125" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" customWidth="1"/>
-    <col min="8" max="8" width="5.86328125" customWidth="1"/>
-    <col min="10" max="10" width="7.46484375" customWidth="1"/>
-    <col min="11" max="11" width="5.86328125" customWidth="1"/>
-    <col min="13" max="13" width="7.46484375" customWidth="1"/>
-    <col min="14" max="14" width="5.86328125" customWidth="1"/>
-    <col min="16" max="16" width="7.46484375" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:17" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="48" t="s">
         <v>36</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -1923,7 +1927,7 @@
       <c r="P5" s="55"/>
       <c r="Q5" s="62"/>
     </row>
-    <row r="6" spans="2:17" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="36" t="s">
         <v>25</v>
       </c>
@@ -1971,7 +1975,7 @@
       </c>
       <c r="Q6" s="61"/>
     </row>
-    <row r="7" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="37"/>
       <c r="C7" s="7"/>
       <c r="D7" s="25"/>
@@ -1989,7 +1993,7 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="62"/>
     </row>
-    <row r="8" spans="2:17" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -2017,7 +2021,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="61"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="39"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -2045,7 +2049,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="60"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="39"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -2073,7 +2077,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="60"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="39">
         <v>10</v>
       </c>
@@ -2103,7 +2107,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="60"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
         <v>9</v>
       </c>
@@ -2123,7 +2127,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="60"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="39">
         <v>8</v>
       </c>
@@ -2153,7 +2157,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="60"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="39">
         <v>7</v>
       </c>
@@ -2183,7 +2187,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="60"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="39">
         <v>6</v>
       </c>
@@ -2203,7 +2207,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="60"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="39">
         <v>5</v>
       </c>
@@ -2223,15 +2227,21 @@
       <c r="H16" s="12"/>
       <c r="I16" s="1"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="21">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="M16" s="33"/>
       <c r="N16" s="12"/>
       <c r="O16" s="1"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="60"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="Q16" s="60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="39">
         <v>4</v>
       </c>
@@ -2255,7 +2265,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="60"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="39">
         <v>3</v>
       </c>
@@ -2285,7 +2295,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="60"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="39">
         <v>2</v>
       </c>
@@ -2315,7 +2325,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="60"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="39">
         <v>1</v>
       </c>
@@ -2335,7 +2345,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="60"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="39" t="s">
         <v>2</v>
       </c>
@@ -2363,7 +2373,7 @@
       </c>
       <c r="Q21" s="60"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="39" t="s">
         <v>3</v>
       </c>
@@ -2391,7 +2401,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="60"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
         <v>4</v>
       </c>
@@ -2431,7 +2441,7 @@
       </c>
       <c r="Q23" s="60"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="47"/>
       <c r="C24" s="1"/>
       <c r="D24" s="26"/>
@@ -2463,7 +2473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40"/>
       <c r="C25" s="41"/>
       <c r="D25" s="42"/>
@@ -2481,7 +2491,7 @@
       <c r="P25" s="59"/>
       <c r="Q25" s="63"/>
     </row>
-    <row r="26" spans="2:19" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M26" s="64"/>
       <c r="N26" s="64"/>
       <c r="O26" s="64"/>
@@ -2489,7 +2499,7 @@
       <c r="Q26" s="64"/>
       <c r="R26" s="64"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L27" s="66"/>
       <c r="M27" s="65"/>
       <c r="N27" s="65"/>
@@ -2499,7 +2509,7 @@
       <c r="R27" s="65"/>
       <c r="S27" s="66"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L28" s="66"/>
       <c r="M28" s="65"/>
       <c r="N28" s="65"/>
@@ -2509,7 +2519,7 @@
       <c r="R28" s="65"/>
       <c r="S28" s="66"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L29" s="66"/>
       <c r="M29" s="66"/>
       <c r="N29" s="66"/>
